--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coordenadas Reales (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo Aprox (mm)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +253,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,19 +340,19 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
+      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.33"/>
@@ -1264,17 +1271,20 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="2" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1300,13 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -1319,8 +1334,17 @@
       <c r="I34" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="n">
         <v>256</v>
       </c>
@@ -1348,8 +1372,17 @@
       <c r="I35" s="8" t="n">
         <v>-290.82</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="16" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="K35" s="16" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="L35" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
         <v>300</v>
       </c>
@@ -1377,8 +1410,17 @@
       <c r="I36" s="8" t="n">
         <v>-290.98</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="16" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="K36" s="16" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="L36" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
         <v>150</v>
       </c>
@@ -1406,8 +1448,17 @@
       <c r="I37" s="8" t="n">
         <v>-290.045</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="16" t="n">
+        <v>-86.58</v>
+      </c>
+      <c r="K37" s="16" t="n">
+        <v>-13.67</v>
+      </c>
+      <c r="L37" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
         <v>50</v>
       </c>
@@ -1435,9 +1486,18 @@
       <c r="I38" s="8" t="n">
         <v>-290.095</v>
       </c>
+      <c r="J38" s="16" t="n">
+        <v>-129.04</v>
+      </c>
+      <c r="K38" s="16" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="L38" s="16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -1458,10 +1518,11 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D32:L32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="14">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coordenada Mundo Aprox (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get3Dpoint.py con rotation_matrix introducida manualmente</t>
   </si>
 </sst>
 </file>
@@ -337,10 +340,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1496,8 +1499,233 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v>590</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G45" s="16" t="n">
+        <v>252.757</v>
+      </c>
+      <c r="H45" s="16" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="I45" s="16" t="n">
+        <v>-291.21</v>
+      </c>
+      <c r="J45" s="16" t="n">
+        <v>-36.11</v>
+      </c>
+      <c r="K45" s="16" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="L45" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>515</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G46" s="16" t="n">
+        <v>252.94</v>
+      </c>
+      <c r="H46" s="16" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I46" s="16" t="n">
+        <v>-291.05</v>
+      </c>
+      <c r="J46" s="16" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="K46" s="16" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="L46" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="B47" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>655</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G47" s="16" t="n">
+        <v>252.32</v>
+      </c>
+      <c r="H47" s="16" t="n">
+        <v>-0.1805</v>
+      </c>
+      <c r="I47" s="16" t="n">
+        <v>-291.58</v>
+      </c>
+      <c r="J47" s="16" t="n">
+        <v>-122.16</v>
+      </c>
+      <c r="K47" s="16" t="n">
+        <v>-19.29</v>
+      </c>
+      <c r="L47" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B48" s="8" t="n">
+        <v>450</v>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>355</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G48" s="16" t="n">
+        <v>251.91</v>
+      </c>
+      <c r="H48" s="16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I48" s="16" t="n">
+        <v>-291.94</v>
+      </c>
+      <c r="J48" s="16" t="n">
+        <v>-228.05</v>
+      </c>
+      <c r="K48" s="16" t="n">
+        <v>143.59</v>
+      </c>
+      <c r="L48" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="30">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -1523,6 +1751,11 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="16">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">get3Dpoint.py con rotation_matrix introducida manualmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (-41º Rotación)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (41º Rotación)</t>
   </si>
 </sst>
 </file>
@@ -340,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I79" activeCellId="0" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,13 +359,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,8 +1730,405 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="B55" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="C55" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>590</v>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G55" s="16" t="n">
+        <v>252.757</v>
+      </c>
+      <c r="H55" s="16" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="I55" s="16" t="n">
+        <v>-291.21</v>
+      </c>
+      <c r="J55" s="8" t="n">
+        <v>-253.19</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <v>-290.82</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v>515</v>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G56" s="16" t="n">
+        <v>252.94</v>
+      </c>
+      <c r="H56" s="16" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I56" s="16" t="n">
+        <v>-291.05</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>-253.015</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L56" s="8" t="n">
+        <v>-290.98</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="B57" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>655</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G57" s="16" t="n">
+        <v>252.32</v>
+      </c>
+      <c r="H57" s="16" t="n">
+        <v>-0.1805</v>
+      </c>
+      <c r="I57" s="16" t="n">
+        <v>-291.58</v>
+      </c>
+      <c r="J57" s="8" t="n">
+        <v>-253.627</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>-0.1805</v>
+      </c>
+      <c r="L57" s="8" t="n">
+        <v>-290.045</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B58" s="8" t="n">
+        <v>450</v>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8" t="n">
+        <v>355</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G58" s="16" t="n">
+        <v>251.91</v>
+      </c>
+      <c r="H58" s="16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I58" s="16" t="n">
+        <v>-291.94</v>
+      </c>
+      <c r="J58" s="8" t="n">
+        <v>-254.0355</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="L58" s="8" t="n">
+        <v>-290.095</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="n">
+        <v>590</v>
+      </c>
+      <c r="B64" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="D64" s="16" t="n">
+        <v>252.757</v>
+      </c>
+      <c r="E64" s="16" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="F64" s="16" t="n">
+        <v>-291.21</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>-253.19</v>
+      </c>
+      <c r="H64" s="8" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>-290.82</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="n">
+        <v>515</v>
+      </c>
+      <c r="B65" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="D65" s="16" t="n">
+        <v>252.94</v>
+      </c>
+      <c r="E65" s="16" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F65" s="16" t="n">
+        <v>-291.05</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>-253.015</v>
+      </c>
+      <c r="H65" s="8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>-290.98</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="n">
+        <v>655</v>
+      </c>
+      <c r="B66" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="D66" s="16" t="n">
+        <v>252.32</v>
+      </c>
+      <c r="E66" s="16" t="n">
+        <v>-0.1805</v>
+      </c>
+      <c r="F66" s="16" t="n">
+        <v>-291.58</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>-253.627</v>
+      </c>
+      <c r="H66" s="8" t="n">
+        <v>-0.1805</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>-290.045</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="n">
+        <v>355</v>
+      </c>
+      <c r="B67" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="D67" s="16" t="n">
+        <v>251.91</v>
+      </c>
+      <c r="E67" s="16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F67" s="16" t="n">
+        <v>-291.94</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>-254.0355</v>
+      </c>
+      <c r="H67" s="8" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>-290.095</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="39">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -1756,6 +2159,15 @@
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="J43:L43"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Rotación Eje Y" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Rotación Eje X" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="25">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -69,6 +70,91 @@
   <si>
     <t xml:space="preserve">Coordenada Mundo (mm) (41º Rotación)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grados (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Radianes (rad)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Theta (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">X (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matriz R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo Aprox (mm) (-41º Rotación)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo Aprox (mm) (41º Rotación)</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +167,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,8 +206,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +249,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,6 +392,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,14 +441,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF7C80"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -341,22 +488,64 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360" y="360"/>
+          <a:ext cx="3022200" cy="1616040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I79" activeCellId="0" sqref="I79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.37"/>
@@ -365,7 +554,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,6 +2316,12 @@
         <v>-290.095</v>
       </c>
     </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="39">
     <mergeCell ref="A1:L1"/>
@@ -2177,4 +2372,580 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <f aca="false">RADIANS(F2)</f>
+        <v>0.715584993317675</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <f aca="false">COS(G2)</f>
+        <v>0.754709580222772</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <f aca="false">SIN(G2)</f>
+        <v>0.656059028990507</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <f aca="false">-SIN(G2)</f>
+        <v>-0.656059028990507</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <f aca="false">COS(G2)</f>
+        <v>0.754709580222772</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>590</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <v>-0.28989372</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>-252.884154</v>
+      </c>
+      <c r="I18" s="16" t="n">
+        <v>-291.096169</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>-26.33</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>515</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <v>-0.0520558769</v>
+      </c>
+      <c r="H19" s="16" t="n">
+        <v>-252.704655</v>
+      </c>
+      <c r="I19" s="16" t="n">
+        <v>-291.252205</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>655</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <v>-0.86286669</v>
+      </c>
+      <c r="H20" s="16" t="n">
+        <v>-253.11260619</v>
+      </c>
+      <c r="I20" s="16" t="n">
+        <v>-290.8975785</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>-73.85</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-20.47</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>450</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>355</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <v>-1.40340723</v>
+      </c>
+      <c r="H21" s="16" t="n">
+        <v>-252.09272838</v>
+      </c>
+      <c r="I21" s="16" t="n">
+        <v>-291.78414476</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>-161.83</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>178.89</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>590</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G29" s="16" t="n">
+        <v>-0.28989372</v>
+      </c>
+      <c r="H29" s="16" t="n">
+        <v>253.06857</v>
+      </c>
+      <c r="I29" s="16" t="n">
+        <v>-290.935859</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>-25.09</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>515</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G30" s="16" t="n">
+        <v>-0.0520558769</v>
+      </c>
+      <c r="H30" s="16" t="n">
+        <v>253.248068</v>
+      </c>
+      <c r="I30" s="16" t="n">
+        <v>-290.779823</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>655</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G31" s="16" t="n">
+        <v>-0.86286669</v>
+      </c>
+      <c r="H31" s="16" t="n">
+        <v>252.84011706</v>
+      </c>
+      <c r="I31" s="16" t="n">
+        <v>-291.13444969</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>-79.31</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-21.99</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>450</v>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>355</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G32" s="16" t="n">
+        <v>-1.40340723</v>
+      </c>
+      <c r="H32" s="16" t="n">
+        <v>253.85999487</v>
+      </c>
+      <c r="I32" s="16" t="n">
+        <v>-290.24788344</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>-101.02</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>111.67</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rotación Eje Y Coord Cámara" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rotación Eje X Coord Cámara" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Rotacion Eje X Coord Mundo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="pinhole" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="29">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -78,7 +79,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Grados (</t>
     </r>
@@ -98,7 +98,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -113,7 +112,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Theta (</t>
     </r>
@@ -133,7 +131,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -156,6 +153,54 @@
   <si>
     <t xml:space="preserve">Coordenada Mundo Aprox (mm) (41º Rotación)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pinhole.py </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">con posición Z de la cámara negativa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pinhole.py </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">con posición Z de la cámara positiva</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (22º Rotación)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (-22º Rotación)</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +219,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,7 +241,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -205,7 +248,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -345,7 +387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,6 +520,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +616,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>624600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -605,7 +659,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>583920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -647,7 +701,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -684,7 +738,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>217800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -720,8 +774,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>37800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -734,7 +788,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5444280"/>
+          <a:off x="0" y="5272920"/>
           <a:ext cx="5475960" cy="1758240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -761,7 +815,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.56"/>
@@ -777,7 +831,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.56"/>
   </cols>
   <sheetData>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +847,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -811,7 +865,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,7 +887,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -871,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>256</v>
       </c>
@@ -910,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>300</v>
       </c>
@@ -949,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>150</v>
       </c>
@@ -988,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>50</v>
       </c>
@@ -1027,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1041,7 +1095,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1055,7 +1109,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1069,7 +1123,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="D26" s="12" t="s">
@@ -1091,7 +1145,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1172,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>256</v>
       </c>
@@ -1221,7 +1275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>300</v>
       </c>
@@ -1277,7 +1331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>150</v>
       </c>
@@ -1333,7 +1387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>50</v>
       </c>
@@ -1389,7 +1443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1403,7 +1457,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1417,7 +1471,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1425,7 +1479,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1441,7 +1495,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="18"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
         <v>3</v>
       </c>
@@ -1463,7 +1517,7 @@
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1501,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="n">
         <v>256</v>
       </c>
@@ -1548,7 +1602,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="n">
         <v>300</v>
       </c>
@@ -1595,7 +1649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="n">
         <v>150</v>
       </c>
@@ -1642,7 +1696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
         <v>50</v>
       </c>
@@ -1689,7 +1743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="25" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1756,7 @@
       <c r="K46" s="26"/>
       <c r="L46" s="27"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1778,7 @@
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>256</v>
       </c>
@@ -1800,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>300</v>
       </c>
@@ -1838,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="n">
         <v>150</v>
       </c>
@@ -1876,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="n">
         <v>50</v>
       </c>
@@ -1914,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="25" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1981,7 @@
       <c r="K56" s="26"/>
       <c r="L56" s="27"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
         <v>3</v>
       </c>
@@ -1949,7 +2003,7 @@
       <c r="K57" s="23"/>
       <c r="L57" s="24"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="n">
         <v>256</v>
       </c>
@@ -2025,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="n">
         <v>300</v>
       </c>
@@ -2063,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="n">
         <v>150</v>
       </c>
@@ -2101,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="n">
         <v>50</v>
       </c>
@@ -2139,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="25" t="s">
         <v>13</v>
       </c>
@@ -2152,7 +2206,7 @@
       <c r="K66" s="26"/>
       <c r="L66" s="27"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="19" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2228,7 @@
       <c r="K67" s="23"/>
       <c r="L67" s="24"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="n">
         <v>256</v>
       </c>
@@ -2250,7 +2304,7 @@
         <v>-290.82</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="n">
         <v>300</v>
       </c>
@@ -2288,7 +2342,7 @@
         <v>-290.98</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="n">
         <v>150</v>
       </c>
@@ -2326,7 +2380,7 @@
         <v>-290.045</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="n">
         <v>50</v>
       </c>
@@ -2364,7 +2418,7 @@
         <v>-290.095</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="25" t="s">
         <v>13</v>
       </c>
@@ -2374,7 +2428,7 @@
       <c r="H75" s="26"/>
       <c r="I75" s="27"/>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="22" t="s">
         <v>11</v>
       </c>
@@ -2391,7 +2445,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="24"/>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +2474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="n">
         <v>590</v>
       </c>
@@ -2449,7 +2503,7 @@
         <v>-290.82</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="n">
         <v>515</v>
       </c>
@@ -2478,7 +2532,7 @@
         <v>-290.98</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="n">
         <v>655</v>
       </c>
@@ -2507,7 +2561,7 @@
         <v>-290.045</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="n">
         <v>355</v>
       </c>
@@ -2576,14 +2630,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="8"/>
       <c r="F1" s="8" t="s">
         <v>16</v>
@@ -2592,7 +2646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="28" t="s">
         <v>18</v>
       </c>
@@ -2604,7 +2658,7 @@
         <v>0.715584993317675</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="29" t="s">
         <v>19</v>
       </c>
@@ -2615,7 +2669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="8" t="n">
         <v>0</v>
       </c>
@@ -2626,14 +2680,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="8" t="n">
         <v>1</v>
       </c>
@@ -2644,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="8" t="n">
         <v>0</v>
       </c>
@@ -2657,7 +2711,7 @@
         <v>0.656059028990507</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="8" t="n">
         <v>0</v>
       </c>
@@ -2670,7 +2724,7 @@
         <v>0.754709580222772</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2734,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,7 +2756,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -2740,7 +2794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>256</v>
       </c>
@@ -2778,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>300</v>
       </c>
@@ -2816,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>150</v>
       </c>
@@ -2854,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>50</v>
       </c>
@@ -2892,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
@@ -2902,7 +2956,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2978,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
@@ -2962,7 +3016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>256</v>
       </c>
@@ -3000,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>300</v>
       </c>
@@ -3038,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>150</v>
       </c>
@@ -3076,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>50</v>
       </c>
@@ -3144,13 +3198,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
@@ -3164,7 +3218,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.78"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M1" s="8"/>
       <c r="N1" s="8" t="s">
         <v>16</v>
@@ -3173,7 +3227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M2" s="28" t="s">
         <v>18</v>
       </c>
@@ -3185,7 +3239,7 @@
         <v>0.715584993317675</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M4" s="29" t="s">
         <v>19</v>
       </c>
@@ -3196,7 +3250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M5" s="8" t="n">
         <v>0</v>
       </c>
@@ -3207,14 +3261,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M7" s="32" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M8" s="8" t="n">
         <v>1</v>
       </c>
@@ -3225,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M9" s="8" t="n">
         <v>0</v>
       </c>
@@ -3238,7 +3292,7 @@
         <v>0.656059028990507</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M10" s="8" t="n">
         <v>0</v>
       </c>
@@ -3251,7 +3305,15 @@
         <v>0.754709580222772</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -3262,8 +3324,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3282,8 +3350,14 @@
       <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>256</v>
       </c>
@@ -3302,8 +3376,14 @@
       <c r="F18" s="8" t="n">
         <v>390</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>300</v>
       </c>
@@ -3322,8 +3402,14 @@
       <c r="F19" s="8" t="n">
         <v>390</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>150</v>
       </c>
@@ -3342,8 +3428,14 @@
       <c r="F20" s="8" t="n">
         <v>390</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>50</v>
       </c>
@@ -3362,8 +3454,14 @@
       <c r="F21" s="8" t="n">
         <v>390</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
         <v>13</v>
       </c>
@@ -3381,7 +3479,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -3403,7 +3501,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -3441,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="n">
         <v>-0.28989372</v>
       </c>
@@ -3479,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="n">
         <v>-0.0520558769</v>
       </c>
@@ -3517,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="n">
         <v>-0.86286669</v>
       </c>
@@ -3555,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="n">
         <v>-1.40340723</v>
       </c>
@@ -3593,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H31" s="8"/>
       <c r="I31" s="8" t="s">
         <v>16</v>
@@ -3602,19 +3700,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="8" t="n">
-        <v>-41</v>
+        <v>41</v>
       </c>
       <c r="J32" s="8" t="n">
         <f aca="false">RADIANS(I32)</f>
-        <v>-0.715584993317675</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.715584993317675</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="29" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H35" s="8" t="n">
         <v>0</v>
       </c>
@@ -3636,14 +3734,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H37" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="8" t="n">
         <v>1</v>
       </c>
@@ -3654,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H39" s="8" t="n">
         <v>0</v>
       </c>
@@ -3664,16 +3762,16 @@
       </c>
       <c r="J39" s="8" t="n">
         <f aca="false">-SIN(J32)</f>
-        <v>0.656059028990507</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.656059028990507</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="8" t="n">
         <f aca="false">SIN(J32)</f>
-        <v>-0.656059028990507</v>
+        <v>0.656059028990507</v>
       </c>
       <c r="J40" s="8" t="n">
         <f aca="false">COS(J32)</f>
@@ -3710,12 +3808,12 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -3759,80 +3857,157 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="15" t="n">
+        <v>-0.28989372</v>
+      </c>
+      <c r="B45" s="15" t="n">
+        <v>253.06857</v>
+      </c>
+      <c r="C45" s="15" t="n">
+        <v>-290.935859</v>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v>-25.09</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>14.01</v>
+      </c>
       <c r="F45" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="H45" s="15" t="n">
+        <v>-0.28989372</v>
+      </c>
+      <c r="I45" s="15" t="n">
+        <v>-252.884154</v>
+      </c>
+      <c r="J45" s="15" t="n">
+        <v>-291.096169</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>-26.33</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <v>14.7</v>
+      </c>
       <c r="M45" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="15" t="n">
+        <v>-0.0520558769</v>
+      </c>
+      <c r="B46" s="15" t="n">
+        <v>253.248068</v>
+      </c>
+      <c r="C46" s="15" t="n">
+        <v>-290.779823</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>39.47</v>
+      </c>
       <c r="F46" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+      <c r="H46" s="15" t="n">
+        <v>-0.0520558769</v>
+      </c>
+      <c r="I46" s="15" t="n">
+        <v>-252.704655</v>
+      </c>
+      <c r="J46" s="15" t="n">
+        <v>-291.252205</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="L46" s="8" t="n">
+        <v>45.52</v>
+      </c>
       <c r="M46" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="15" t="n">
+        <v>-0.86286669</v>
+      </c>
+      <c r="B47" s="15" t="n">
+        <v>252.84011706</v>
+      </c>
+      <c r="C47" s="15" t="n">
+        <v>-291.13444969</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>-79.31</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>-21.99</v>
+      </c>
       <c r="F47" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="H47" s="15" t="n">
+        <v>-0.86286669</v>
+      </c>
+      <c r="I47" s="15" t="n">
+        <v>-253.11260619</v>
+      </c>
+      <c r="J47" s="15" t="n">
+        <v>-290.8975785</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>-73.85</v>
+      </c>
+      <c r="L47" s="8" t="n">
+        <v>-20.47</v>
+      </c>
       <c r="M47" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="15" t="n">
+        <v>-1.40340723</v>
+      </c>
+      <c r="B48" s="15" t="n">
+        <v>253.85999487</v>
+      </c>
+      <c r="C48" s="15" t="n">
+        <v>-290.24788344</v>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>-101.02</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>111.67</v>
+      </c>
       <c r="F48" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+      <c r="H48" s="15" t="n">
+        <v>-1.40340723</v>
+      </c>
+      <c r="I48" s="15" t="n">
+        <v>-252.09272838</v>
+      </c>
+      <c r="J48" s="15" t="n">
+        <v>-291.78414476</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>-161.83</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <v>178.89</v>
+      </c>
       <c r="M48" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="M7:O7"/>
@@ -3861,4 +4036,833 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <f aca="false">RADIANS(B2)</f>
+        <v>0.383972435438752</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>-265</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <f aca="false">COS(C2)</f>
+        <v>0.927183854566787</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <f aca="false">SIN(C2)</f>
+        <v>0.374606593415912</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <f aca="false">-SIN(C2)</f>
+        <v>-0.374606593415912</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <f aca="false">COS(C2)</f>
+        <v>0.927183854566787</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>-196.08</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N16" s="15" t="n">
+        <v>-35.51</v>
+      </c>
+      <c r="O16" s="15" t="n">
+        <v>-24.83</v>
+      </c>
+      <c r="P16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v>195.14</v>
+      </c>
+      <c r="R16" s="8" t="n">
+        <v>-30.56</v>
+      </c>
+      <c r="S16" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>-144.74</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N17" s="15" t="n">
+        <v>-72.43</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>-26.49</v>
+      </c>
+      <c r="P17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8" t="n">
+        <v>144.33</v>
+      </c>
+      <c r="R17" s="8" t="n">
+        <v>-28.73</v>
+      </c>
+      <c r="S17" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>102.16</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>-112.8</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N18" s="15" t="n">
+        <v>-101.42</v>
+      </c>
+      <c r="O18" s="15" t="n">
+        <v>-27.54</v>
+      </c>
+      <c r="P18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8" t="n">
+        <v>112.42</v>
+      </c>
+      <c r="R18" s="8" t="n">
+        <v>-27.23</v>
+      </c>
+      <c r="S18" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>124.42</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>-89.74</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N19" s="15" t="n">
+        <v>-124.82</v>
+      </c>
+      <c r="O19" s="15" t="n">
+        <v>-27.31</v>
+      </c>
+      <c r="P19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8" t="n">
+        <v>90.1</v>
+      </c>
+      <c r="R19" s="8" t="n">
+        <v>-26.44</v>
+      </c>
+      <c r="S19" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>101.79</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>-112.4</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N24" s="15" t="n">
+        <v>-101.79</v>
+      </c>
+      <c r="O24" s="15" t="n">
+        <v>-51.6</v>
+      </c>
+      <c r="P24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8" t="n">
+        <v>112.41</v>
+      </c>
+      <c r="R24" s="8" t="n">
+        <v>-51.62</v>
+      </c>
+      <c r="S24" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <v>102.91</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <v>76.81</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>-111.27</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>77.65</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N25" s="15" t="n">
+        <v>-102.91</v>
+      </c>
+      <c r="O25" s="15" t="n">
+        <v>-76.81</v>
+      </c>
+      <c r="P25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8" t="n">
+        <v>111.27</v>
+      </c>
+      <c r="R25" s="8" t="n">
+        <v>-77.3</v>
+      </c>
+      <c r="S25" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>104.41</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>102.84</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>-110.13</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>102.55</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="M26" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N26" s="15" t="n">
+        <v>-104.41</v>
+      </c>
+      <c r="O26" s="15" t="n">
+        <v>-102.14</v>
+      </c>
+      <c r="P26" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="R26" s="8" t="n">
+        <v>-102.96</v>
+      </c>
+      <c r="S26" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <v>105.91</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>127.57</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>-108.23</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>127.96</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="M27" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N27" s="15" t="n">
+        <v>-105.16</v>
+      </c>
+      <c r="O27" s="15" t="n">
+        <v>-128.84</v>
+      </c>
+      <c r="P27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="R27" s="8" t="n">
+        <v>-129.49</v>
+      </c>
+      <c r="S27" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="34">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -215,6 +215,35 @@
   <si>
     <t xml:space="preserve">49.05</t>
   </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (-65º Rotación)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pinhole.py </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">con posición Z de la cámara positiva rotada 180º</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (-115º Rotación)</t>
+  </si>
 </sst>
 </file>
 
@@ -404,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -553,6 +582,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,9 +673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
+      <xdr:colOff>623520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -652,7 +689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6065280" cy="2494080"/>
+          <a:ext cx="6065640" cy="2493720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,9 +715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
+      <xdr:colOff>582840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -694,7 +731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="360" y="360"/>
-          <a:ext cx="3029040" cy="1768320"/>
+          <a:ext cx="3032280" cy="1767960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,9 +757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>97920</xdr:colOff>
+      <xdr:colOff>97560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -736,7 +773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6283440" cy="2583720"/>
+          <a:ext cx="6287400" cy="2583360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,9 +794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -772,8 +809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6963840" y="23040"/>
-          <a:ext cx="2989800" cy="1768320"/>
+          <a:off x="6969600" y="23040"/>
+          <a:ext cx="2989800" cy="1767960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,9 +831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -810,7 +847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5444280"/>
-          <a:ext cx="5477760" cy="1872000"/>
+          <a:ext cx="5480640" cy="1871640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,9 +873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
+      <xdr:colOff>271080</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,7 +889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560" y="5065200"/>
-          <a:ext cx="4340520" cy="2363760"/>
+          <a:ext cx="4346640" cy="2363400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,9 +910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>788040</xdr:colOff>
+      <xdr:colOff>787680</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -888,8 +925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5741640" y="12467880"/>
-          <a:ext cx="3552120" cy="1564560"/>
+          <a:off x="5747400" y="12467880"/>
+          <a:ext cx="3554280" cy="1564200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -910,9 +947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
+      <xdr:colOff>780480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -925,8 +962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5732280" y="10848960"/>
-          <a:ext cx="1634040" cy="1602720"/>
+          <a:off x="5738040" y="10848960"/>
+          <a:ext cx="1636200" cy="1602360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,19 +986,19 @@
   <dimension ref="A15:O81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C73:C77 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.33"/>
@@ -2764,10 +2801,10 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C73:C77 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.1"/>
@@ -3338,17 +3375,17 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="1" sqref="C73:C77 H23"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.22"/>
@@ -4180,13 +4217,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73:C77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E125" activeCellId="0" sqref="E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.66"/>
@@ -5635,8 +5672,634 @@
         <v>0</v>
       </c>
     </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B85" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="15" t="n">
+        <v>1805.012</v>
+      </c>
+      <c r="E85" s="15" t="n">
+        <v>-165.39</v>
+      </c>
+      <c r="F85" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B86" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" s="15" t="n">
+        <v>902.89</v>
+      </c>
+      <c r="E86" s="15" t="n">
+        <v>-83.46</v>
+      </c>
+      <c r="F86" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B87" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="15" t="n">
+        <v>651.976</v>
+      </c>
+      <c r="E87" s="15" t="n">
+        <v>-63.059</v>
+      </c>
+      <c r="F87" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="B88" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="15" t="n">
+        <v>532.228</v>
+      </c>
+      <c r="E88" s="15" t="n">
+        <v>-62.809</v>
+      </c>
+      <c r="F88" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B94" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="15" t="n">
+        <v>430.18</v>
+      </c>
+      <c r="E94" s="15" t="n">
+        <v>-56.11</v>
+      </c>
+      <c r="F94" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B95" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" s="15" t="n">
+        <v>621.26</v>
+      </c>
+      <c r="E95" s="15" t="n">
+        <v>-70.507</v>
+      </c>
+      <c r="F95" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B96" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" s="15" t="n">
+        <v>853.38</v>
+      </c>
+      <c r="E96" s="15" t="n">
+        <v>-88.13</v>
+      </c>
+      <c r="F96" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="B97" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" s="15" t="n">
+        <v>1145.24</v>
+      </c>
+      <c r="E97" s="15" t="n">
+        <v>-107.4</v>
+      </c>
+      <c r="F97" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B103" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="15" t="n">
+        <v>-959.775</v>
+      </c>
+      <c r="E103" s="15" t="n">
+        <v>108.17</v>
+      </c>
+      <c r="F103" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B104" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" s="15" t="n">
+        <v>-601.997</v>
+      </c>
+      <c r="E104" s="15" t="n">
+        <v>68.668</v>
+      </c>
+      <c r="F104" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B105" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" s="15" t="n">
+        <v>-463.672</v>
+      </c>
+      <c r="E105" s="15" t="n">
+        <v>51.373</v>
+      </c>
+      <c r="F105" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="B106" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="15" t="n">
+        <v>-394.298</v>
+      </c>
+      <c r="E106" s="15" t="n">
+        <v>43.987</v>
+      </c>
+      <c r="F106" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="15" t="n">
+        <v>-330.62</v>
+      </c>
+      <c r="E112" s="15" t="n">
+        <v>38.899</v>
+      </c>
+      <c r="F112" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="15" t="n">
+        <v>-446.1</v>
+      </c>
+      <c r="E113" s="15" t="n">
+        <v>51.052</v>
+      </c>
+      <c r="F113" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="15" t="n">
+        <v>-573.24</v>
+      </c>
+      <c r="E114" s="15" t="n">
+        <v>66.657</v>
+      </c>
+      <c r="F114" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="B115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="15" t="n">
+        <v>-704.979</v>
+      </c>
+      <c r="E115" s="15" t="n">
+        <v>81.414</v>
+      </c>
+      <c r="F115" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B121" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="15" t="n">
+        <v>-447.324</v>
+      </c>
+      <c r="E121" s="15" t="n">
+        <v>49.27</v>
+      </c>
+      <c r="F121" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="B122" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" s="15" t="n">
+        <v>-448.548</v>
+      </c>
+      <c r="E122" s="15" t="n">
+        <v>107.57</v>
+      </c>
+      <c r="F122" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B123" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" s="15" t="n">
+        <v>-456.01</v>
+      </c>
+      <c r="E123" s="15" t="n">
+        <v>165.426</v>
+      </c>
+      <c r="F123" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="B124" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="C124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" s="15" t="n">
+        <v>-458.54</v>
+      </c>
+      <c r="E124" s="15" t="n">
+        <v>224.121</v>
+      </c>
+      <c r="F124" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="36"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="47">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="K13:S13"/>
@@ -5669,6 +6332,21 @@
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="35">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coordenada Mundo (mm) (-115º Rotación)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (º Rotación)</t>
   </si>
 </sst>
 </file>
@@ -975,6 +978,80 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360" y="22465080"/>
+          <a:ext cx="1636200" cy="1602360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>288360</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>101160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360" y="24050520"/>
+          <a:ext cx="3554280" cy="1564200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4217,10 +4294,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S125"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E125" activeCellId="0" sqref="E125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L136" activeCellId="0" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6298,8 +6375,237 @@
       <c r="E125" s="36"/>
       <c r="F125" s="36"/>
     </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="8" t="n">
+        <v>340</v>
+      </c>
+      <c r="G130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F131" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G131" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F132" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="G132" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F133" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="G133" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F139" s="8" t="n">
+        <v>340</v>
+      </c>
+      <c r="G139" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F140" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G140" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F141" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="G141" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F142" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="G142" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="37"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="53">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="K13:S13"/>
@@ -6347,6 +6653,12 @@
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="A119:C119"/>
     <mergeCell ref="D119:F119"/>
+    <mergeCell ref="F127:K127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="F136:K136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="I137:K137"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/Calibración de la cámara y retroproyección.xlsx
+++ b/docs/Calibración de la cámara y retroproyección.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="35">
   <si>
     <t xml:space="preserve">Script</t>
   </si>
@@ -213,6 +213,9 @@
     <t xml:space="preserve">Coordenada Mundo (mm) (65º Rotación)</t>
   </si>
   <si>
+    <t xml:space="preserve">Coordenada Mundo (mm) (74º Rotación)</t>
+  </si>
+  <si>
     <t xml:space="preserve">49.05</t>
   </si>
   <si>
@@ -243,9 +246,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coordenada Mundo (mm) (-115º Rotación)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordenada Mundo (mm) (º Rotación)</t>
   </si>
 </sst>
 </file>
@@ -586,11 +586,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -676,9 +676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>623520</xdr:colOff>
+      <xdr:colOff>623160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -692,7 +692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6065640" cy="2493720"/>
+          <a:ext cx="6065640" cy="2493360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -718,9 +718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
+      <xdr:colOff>582480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -734,7 +734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="360" y="360"/>
-          <a:ext cx="3032280" cy="1767960"/>
+          <a:ext cx="3035880" cy="1767600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,9 +760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:colOff>97200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -776,7 +776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6287400" cy="2583360"/>
+          <a:ext cx="6291000" cy="2583000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,9 +797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>216720</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -812,8 +812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6969600" y="23040"/>
-          <a:ext cx="2989800" cy="1767960"/>
+          <a:off x="6974640" y="23040"/>
+          <a:ext cx="2990160" cy="1767600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,9 +834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -850,7 +850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5444280"/>
-          <a:ext cx="5480640" cy="1871640"/>
+          <a:ext cx="5482800" cy="1871280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -876,9 +876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>271080</xdr:colOff>
+      <xdr:colOff>270720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -892,7 +892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560" y="5065200"/>
-          <a:ext cx="4346640" cy="2363400"/>
+          <a:ext cx="4352400" cy="2363040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,16 +906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>786600</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>787680</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>305280</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,8 +928,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5747400" y="12467880"/>
-          <a:ext cx="3554280" cy="1564200"/>
+          <a:off x="11814480" y="12591720"/>
+          <a:ext cx="3556800" cy="1563840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -943,16 +943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12960</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>780480</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15840</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -965,8 +965,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5738040" y="10848960"/>
-          <a:ext cx="1636200" cy="1602360"/>
+          <a:off x="11807280" y="10863000"/>
+          <a:ext cx="1638720" cy="1602000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -987,9 +987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,8 +1002,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="22465080"/>
-          <a:ext cx="1636200" cy="1602360"/>
+          <a:off x="360" y="22425120"/>
+          <a:ext cx="1638360" cy="1602000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,9 +1024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1039,8 +1039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="24050520"/>
-          <a:ext cx="3554280" cy="1564200"/>
+          <a:off x="360" y="24010560"/>
+          <a:ext cx="3559320" cy="1563840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,11 +1066,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.34"/>
@@ -2881,7 +2881,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.1"/>
@@ -3455,7 +3455,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
@@ -4296,11 +4296,11 @@
   </sheetPr>
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L136" activeCellId="0" sqref="L136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H123" activeCellId="0" sqref="H123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.66"/>
@@ -5465,7 +5465,7 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -5474,8 +5474,16 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -5486,8 +5494,18 @@
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
@@ -5504,6 +5522,24 @@
         <v>7</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5526,6 +5562,24 @@
       <c r="F64" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H64" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="15" t="n">
+        <v>403.57</v>
+      </c>
+      <c r="L64" s="15" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="M64" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="n">
@@ -5546,6 +5600,24 @@
       <c r="F65" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H65" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="15" t="n">
+        <v>506.14</v>
+      </c>
+      <c r="L65" s="15" t="n">
+        <v>-10.25</v>
+      </c>
+      <c r="M65" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="n">
@@ -5566,6 +5638,24 @@
       <c r="F66" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H66" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="15" t="n">
+        <v>610.24</v>
+      </c>
+      <c r="L66" s="15" t="n">
+        <v>-8.855</v>
+      </c>
+      <c r="M66" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="n">
@@ -5581,9 +5671,27 @@
         <v>553.93</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8" t="n">
+        <v>700</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="15" t="n">
+        <v>711.86</v>
+      </c>
+      <c r="L67" s="15" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="M67" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5606,8 +5714,15 @@
       <c r="F68" s="15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
@@ -5616,8 +5731,16 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -5628,8 +5751,18 @@
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>6</v>
       </c>
@@ -5646,6 +5779,24 @@
         <v>7</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5668,6 +5819,24 @@
       <c r="F73" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H73" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="15" t="n">
+        <v>504.897</v>
+      </c>
+      <c r="L73" s="15" t="n">
+        <v>-8.178</v>
+      </c>
+      <c r="M73" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="n">
@@ -5688,6 +5857,24 @@
       <c r="F74" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H74" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I74" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J74" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="15" t="n">
+        <v>506.14</v>
+      </c>
+      <c r="L74" s="15" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="M74" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="n">
@@ -5708,6 +5895,24 @@
       <c r="F75" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H75" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I75" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="15" t="n">
+        <v>519.47</v>
+      </c>
+      <c r="L75" s="15" t="n">
+        <v>100.547</v>
+      </c>
+      <c r="M75" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="n">
@@ -5728,6 +5933,24 @@
       <c r="F76" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="H76" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I76" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="J76" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="15" t="n">
+        <v>526.14</v>
+      </c>
+      <c r="L76" s="15" t="n">
+        <v>149.54</v>
+      </c>
+      <c r="M76" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="n">
@@ -5746,6 +5969,24 @@
         <v>261.74</v>
       </c>
       <c r="F77" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="38" t="n">
+        <v>500</v>
+      </c>
+      <c r="I77" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="J77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="38" t="n">
+        <v>536.61</v>
+      </c>
+      <c r="L77" s="38" t="n">
+        <v>201.77</v>
+      </c>
+      <c r="M77" s="38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5766,7 +6007,7 @@
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -5872,16 +6113,16 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5896,7 +6137,7 @@
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6003,7 +6244,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6018,7 +6259,7 @@
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -6140,7 +6381,7 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -6262,7 +6503,7 @@
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -6369,7 +6610,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="36"/>
-      <c r="B125" s="38"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="36"/>
       <c r="D125" s="36"/>
       <c r="E125" s="36"/>
@@ -6392,7 +6633,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -6419,7 +6660,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F130" s="8" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="G130" s="8" t="n">
         <v>0</v>
@@ -6427,15 +6668,19 @@
       <c r="H130" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
+      <c r="I130" s="15" t="n">
+        <v>403.57</v>
+      </c>
+      <c r="J130" s="15" t="n">
+        <v>-10.15</v>
+      </c>
       <c r="K130" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F131" s="8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G131" s="8" t="n">
         <v>0</v>
@@ -6443,15 +6688,19 @@
       <c r="H131" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
+      <c r="I131" s="15" t="n">
+        <v>506.14</v>
+      </c>
+      <c r="J131" s="15" t="n">
+        <v>-10.25</v>
+      </c>
       <c r="K131" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F132" s="8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G132" s="8" t="n">
         <v>0</v>
@@ -6459,15 +6708,19 @@
       <c r="H132" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
+      <c r="I132" s="15" t="n">
+        <v>610.24</v>
+      </c>
+      <c r="J132" s="15" t="n">
+        <v>-8.855</v>
+      </c>
       <c r="K132" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F133" s="8" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G133" s="8" t="n">
         <v>0</v>
@@ -6475,19 +6728,23 @@
       <c r="H133" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
+      <c r="I133" s="15" t="n">
+        <v>711.86</v>
+      </c>
+      <c r="J133" s="15" t="n">
+        <v>-8.31</v>
+      </c>
       <c r="K133" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="37"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,7 +6764,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -6534,7 +6791,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F139" s="8" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="G139" s="8" t="n">
         <v>0</v>
@@ -6542,24 +6799,32 @@
       <c r="H139" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
+      <c r="I139" s="15" t="n">
+        <v>504.897</v>
+      </c>
+      <c r="J139" s="15" t="n">
+        <v>-8.178</v>
+      </c>
       <c r="K139" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F140" s="8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G140" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H140" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
+      <c r="I140" s="15" t="n">
+        <v>506.14</v>
+      </c>
+      <c r="J140" s="15" t="n">
+        <v>43.33</v>
+      </c>
       <c r="K140" s="15" t="n">
         <v>0</v>
       </c>
@@ -6569,43 +6834,63 @@
         <v>500</v>
       </c>
       <c r="G141" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H141" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
+      <c r="I141" s="15" t="n">
+        <v>519.47</v>
+      </c>
+      <c r="J141" s="15" t="n">
+        <v>100.547</v>
+      </c>
       <c r="K141" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F142" s="8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G142" s="8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H142" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
+      <c r="I142" s="15" t="n">
+        <v>526.14</v>
+      </c>
+      <c r="J142" s="15" t="n">
+        <v>149.54</v>
+      </c>
       <c r="K142" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="37"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="37"/>
+      <c r="F143" s="38" t="n">
+        <v>500</v>
+      </c>
+      <c r="G143" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="H143" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="38" t="n">
+        <v>536.61</v>
+      </c>
+      <c r="J143" s="38" t="n">
+        <v>201.77</v>
+      </c>
+      <c r="K143" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="59">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="K13:S13"/>
@@ -6633,11 +6918,17 @@
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="A61:F61"/>
+    <mergeCell ref="H61:M61"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:M62"/>
     <mergeCell ref="A70:F70"/>
+    <mergeCell ref="H70:M70"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="D71:F71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:F83"/>
